--- a/HPC/Project/Survey.xlsx
+++ b/HPC/Project/Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc\NITK\S1\Git\NITK\HPC\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83F12AB-0867-4D38-9B7E-CF08FA606ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44011E9-A491-4554-B3E1-92B0D28143DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Title</t>
   </si>
@@ -62,13 +62,68 @@
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/pii/S0167926017304388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltage Frequency Island (VFI)-based power management strategy is used to reduce power consumption.To solve thermal issue in the 3D NoC, Reciprocal Design Symmetry (RDS)-based vertical placement is used. A small-world network-enabled 3D NoC (3D SWNoC) is used for performance evaluation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDP(energy-delay-product ) - product of network latency and energy dissipation. 
+Maximum, average, and minimum temperature </t>
+  </si>
+  <si>
+    <t>VFI-enabled 3D SWNoC achieves on an average 57.3% lower EDP than conventional 2D MESH-based architecture.
+The 3D SWNoC
+architecture while incorporating both the VFI and RDS techniques lowers
+the maximum temperature by 25.1% on an average compared to the
+conventional non-VFI counterpart.</t>
+  </si>
+  <si>
+    <t>the proposed performance thermal
+co-design (PTO) approach for 3D SWNoC improves the thermal
+profile by 18.9% while incurring only 2.2% performance penalty
+compared to only performance oriented (PO) 3D SWNoC architecture.</t>
+  </si>
+  <si>
+    <t>Focus on Specific Architectures: The study primarily evaluates the small-world network-enabled 3D NoC (3D SWNoC) and its performance compared to 2D MESH architectures. This narrow focus may limit the generalizability of the findings to other types of NoC architectures, which might behave differently under similar conditions</t>
+  </si>
+  <si>
+    <t>Q-Thermal: A Q-Learning-Based Thermal-Aware
+Routing Algorithm for 3-D Network On-Chips</t>
+  </si>
+  <si>
+    <t>Narges Shahabinejad and Hakem Beitollahi</t>
+  </si>
+  <si>
+    <t>A Q-Learning-Based Routing Algorithmwhich utilizes a Q-table consist of thermal information to manage routing decisions .	Routers select output channels based on Q-values, choosing paths with lower temperatures to optimize thermal distribution.</t>
+  </si>
+  <si>
+    <t>standard deviation of
+thermal distribution,Statistical traffic load distribution (STLD),Average Latency,Number of Thermal Hot Spots,area overhead and power consumption</t>
+  </si>
+  <si>
+    <t>1. Q-Thermal improves the standard deviation of thermal distribution by approximately 28% and 13% in comparison with TAAR(TAAR -Topology aware adaptive routing) and PTB3R(Proactive thermal budget- based beltway routing algorithm), respectively.
+2. Q-Thermal exhibits a slightly denser traffic load in lower layers compared to TAAR, as it proactively steers traffic toward cooler regions.
+3. Q-Thermal demonstrates a 32% improvement in average latency compared to existing routing techniques.
+4. significantly reduces the number of thermal hotspots, achieving a 38% reduction compared to TAAR and 54% compared to PTB3R.
+5. Q-Thermal increases the layout area by 7% and 11% in comparison with TAAR and PTB3R, respectively.
+6. The total power consumption (the sum of both dynamic and static power) of Q-Thermal is 2% and 4% more than TAAR and PTB3R platforms, respectively.</t>
+  </si>
+  <si>
+    <t>1.The Q-Thermal method effectively records and utilizes temperature data from packet paths to optimize routing decisions in 3-D NoCs.
+2. The approach leads to better thermal balance, reduced hotspots, and improved network performance compared to previous methods.</t>
+  </si>
+  <si>
+    <t>Increased Area and Power Consumption: Slightly increases the area and power consumption compared to previous routing techniques. This increase is primarily due to the implementation of Q-tables and additional virtual channels.</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9172044</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +137,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,19 +179,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -407,75 +478,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="7.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>2018</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{2B546614-E032-480F-90AD-4FE3F63DEC9D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/HPC/Project/Survey.xlsx
+++ b/HPC/Project/Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc\NITK\S1\Git\NITK\HPC\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44011E9-A491-4554-B3E1-92B0D28143DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AA09C6-5D6A-422A-9786-21F4A2ABE0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Title</t>
   </si>
@@ -118,12 +118,68 @@
   <si>
     <t>https://ieeexplore.ieee.org/document/9172044</t>
   </si>
+  <si>
+    <t>"A Nearest-Neighbor-Based Thermal Sensor
+Allocation and Temperature Reconstruction
+Method for 3-D NoC-Based Multicore Systems"</t>
+  </si>
+  <si>
+    <t>Menghao Guo,Tong Cheng,Xinyi Li,Li Li,Yuxiang Fu</t>
+  </si>
+  <si>
+    <t>1.Nearest-neighbor-based initialization algorithm to allocate thermal sensors and Genetic Algorithm (GA) to optimize the initial allocation.
+2. Use artificial neural network (ANN) to estimate the temperature of nonsensor-allocated nodes.</t>
+  </si>
+  <si>
+    <t>Average and Maximum Temperature Error</t>
+  </si>
+  <si>
+    <t>1. Reduces The average temperature error by 17.60%–88.63% compared with state-of-the-art methods.
+2. Reduces The maximum  temperature error by 26.97%–85.92%  compared with state-of-the-art methods.</t>
+  </si>
+  <si>
+    <t>The method assumes that spatial thermal correlations among cores remain constant across different applications, which may not be valid in all scenarios, potentially impacting temperature reconstruction accuracy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The proposed nearest-neighbor-based thermal sensor allocation method effectively places sensors based on spatial thermal correlation.
+The use of an artificial neural network (ANN) for temperature reconstruction allows for accurate estimation of temperatures in nonsensor-allocated nodes.  </t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9941189</t>
+  </si>
+  <si>
+    <t>"TTQR: A Traffic- and Thermal-Aware Q-Routing for 3D
+Network-on-Chip"</t>
+  </si>
+  <si>
+    <t>Hanyan Liu,Xiaowen Chen,Yunping Zhao,Chen Li and Jianzhuang Lu</t>
+  </si>
+  <si>
+    <t>A Q learning based routing algorithm which uses two Q Table: One table maintains local traffic status information and second table holds global thermal information about the network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Average latency 
+2.Throughput 
+3.Statistical Traffic Load Distribution
+4. Temperature distribution </t>
+  </si>
+  <si>
+    <t>1.TTQR improves latency by an average of 63.6% compared to TAAR.(Thermal-aware Adaptive Routing)
+2. TTQR improves throughput by 41.4%  compared to TAAR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. TTQR provides a more uniform temperature distribution across  layers compared to TAAR
+2.TTQR has a more balanced distribution of traffic load across layers </t>
+  </si>
+  <si>
+    <t>TTQR has slightly higher average temperature  compared to TAAR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +201,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -196,6 +258,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -478,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,11 +661,70 @@
         <v>24</v>
       </c>
     </row>
+    <row r="6" spans="1:10" ht="216" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="144" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1" xr:uid="{2B546614-E032-480F-90AD-4FE3F63DEC9D}"/>
+    <hyperlink ref="J6" r:id="rId2" xr:uid="{40DB3DFE-2086-48B9-A18E-6C4857D1FDA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/HPC/Project/Survey.xlsx
+++ b/HPC/Project/Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc\NITK\S1\Git\NITK\HPC\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AA09C6-5D6A-422A-9786-21F4A2ABE0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1ADBA7-08C1-4C67-841E-E98127F57843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>Title</t>
   </si>
@@ -101,78 +101,216 @@
 thermal distribution,Statistical traffic load distribution (STLD),Average Latency,Number of Thermal Hot Spots,area overhead and power consumption</t>
   </si>
   <si>
-    <t>1. Q-Thermal improves the standard deviation of thermal distribution by approximately 28% and 13% in comparison with TAAR(TAAR -Topology aware adaptive routing) and PTB3R(Proactive thermal budget- based beltway routing algorithm), respectively.
+    <t>1.The Q-Thermal method effectively records and utilizes temperature data from packet paths to optimize routing decisions in 3-D NoCs.
+2. The approach leads to better thermal balance, reduced hotspots, and improved network performance compared to previous methods.</t>
+  </si>
+  <si>
+    <t>Increased Area and Power Consumption: Slightly increases the area and power consumption compared to previous routing techniques. This increase is primarily due to the implementation of Q-tables and additional virtual channels.</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9172044</t>
+  </si>
+  <si>
+    <t>"A Nearest-Neighbor-Based Thermal Sensor
+Allocation and Temperature Reconstruction
+Method for 3-D NoC-Based Multicore Systems"</t>
+  </si>
+  <si>
+    <t>Menghao Guo,Tong Cheng,Xinyi Li,Li Li,Yuxiang Fu</t>
+  </si>
+  <si>
+    <t>1.Nearest-neighbor-based initialization algorithm to allocate thermal sensors and Genetic Algorithm (GA) to optimize the initial allocation.
+2. Use artificial neural network (ANN) to estimate the temperature of nonsensor-allocated nodes.</t>
+  </si>
+  <si>
+    <t>Average and Maximum Temperature Error</t>
+  </si>
+  <si>
+    <t>1. Reduces The average temperature error by 17.60%–88.63% compared with state-of-the-art methods.
+2. Reduces The maximum  temperature error by 26.97%–85.92%  compared with state-of-the-art methods.</t>
+  </si>
+  <si>
+    <t>The method assumes that spatial thermal correlations among cores remain constant across different applications, which may not be valid in all scenarios, potentially impacting temperature reconstruction accuracy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The proposed nearest-neighbor-based thermal sensor allocation method effectively places sensors based on spatial thermal correlation.
+The use of an artificial neural network (ANN) for temperature reconstruction allows for accurate estimation of temperatures in nonsensor-allocated nodes.  </t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9941189</t>
+  </si>
+  <si>
+    <t>"TTQR: A Traffic- and Thermal-Aware Q-Routing for 3D
+Network-on-Chip"</t>
+  </si>
+  <si>
+    <t>Hanyan Liu,Xiaowen Chen,Yunping Zhao,Chen Li and Jianzhuang Lu</t>
+  </si>
+  <si>
+    <t>A Q learning based routing algorithm which uses two Q Table: One table maintains local traffic status information and second table holds global thermal information about the network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Average latency 
+2.Throughput 
+3.Statistical Traffic Load Distribution
+4. Temperature distribution </t>
+  </si>
+  <si>
+    <t>1.TTQR improves latency by an average of 63.6% compared to TAAR.(Thermal-aware Adaptive Routing)
+2. TTQR improves throughput by 41.4%  compared to TAAR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. TTQR provides a more uniform temperature distribution across  layers compared to TAAR
+2.TTQR has a more balanced distribution of traffic load across layers </t>
+  </si>
+  <si>
+    <t>TTQR has slightly higher average temperature  compared to TAAR</t>
+  </si>
+  <si>
+    <t>BTSAM: Balanced Thermal-State-Aware Mapping
+Algorithms and Architecture for 3D-NoC-Based
+Neuromorphic Systems</t>
+  </si>
+  <si>
+    <t>MOHAMED MAATAR,ZHISHANG WANG,KHANH N. DANG,ABDERAZEK BEN ABDALLAH</t>
+  </si>
+  <si>
+    <t>Balanced Thermal-StateAware Mapping (BTSAM) method</t>
+  </si>
+  <si>
+    <t>Temperature, Mean time to failure (MTTF), Communication cost</t>
+  </si>
+  <si>
+    <t>In a 3x3x3 neuromorphic system,
+1. Peak temperature is reduced by 2.6 K, 12.4 K, and 5.2 K compared to XYZ, ZYX, and HeterGenMap.
+2. MTTF is improved by 4.5×, 3.7×, and 3.3× in layers 0, 1, and 2.
+3. Communication cost increased by a factor of 3.8</t>
+  </si>
+  <si>
+    <t>The proposed method reduces temperature and increases realiabily but increases commmunication cost and reduces system accuracy.</t>
+  </si>
+  <si>
+    <t>1. Increased communication cost
+2. Reduction in overall system accuracy</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/10591965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermal distribution and reliability prediction for 3D Networks-on-Chip
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khanh N. Dang1, Akram Ben Ahmed, Abderazek Ben Abdallah, Xuan-Tu Tran
+</t>
+  </si>
+  <si>
+    <t>For 3D NoCs, Hotspot 6.0 is used to predict temperature distribution. PrimeTime is used for power consumption analysis.</t>
+  </si>
+  <si>
+    <t>Static power, Energy per data bit, TSV area thermal resistivity</t>
+  </si>
+  <si>
+    <t>1.Static power is 7.66e-4 W
+2.Energy per data bit is 9.246e-13 J/bit
+3.TSV area thermal resistivity is 0.0226mK/W.</t>
+  </si>
+  <si>
+    <t>1.Monolithic 3D-ICs have higher temperatures than TSV-based 3D-NoCs
+2. Monolithic 3D-ICs have lower area cost than TSV-based systems</t>
+  </si>
+  <si>
+    <t>1. The system is tested against benchmarks which may not be accurate in real-world.
+2. No detailed comparison between power, area and temperature.</t>
+  </si>
+  <si>
+    <t>https://eprints.uet.vnu.edu.vn/eprints/id/eprint/3969/</t>
+  </si>
+  <si>
+    <t>NoCeption: A Fast PPA Prediction Framework for
+Network-on-Chips Using Graph Neural Network</t>
+  </si>
+  <si>
+    <t>Fuping Li,Ying Wang,Cheng Liu,Huawei Li,Xiaowei Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Graph Neural Network Framework for predicting the power, performance, and area (PPA) of Network-on-Chips </t>
+  </si>
+  <si>
+    <t>Issue addressed</t>
+  </si>
+  <si>
+    <t>Power and Area</t>
+  </si>
+  <si>
+    <t>Power and Area prediction</t>
+  </si>
+  <si>
+    <t>Power prediction accuracy = 97.36% , Area prediction accuracy = 97.83%</t>
+  </si>
+  <si>
+    <t>The proposed method, based on Graph Neural Networks, offers fast and accurate PPA prediction, which provides essential information for optimizing NoC design.</t>
+  </si>
+  <si>
+    <t>The proposed method may struggle with efficiency and accuracy when applied to larger systems because the experiments demonstrate effective performance only up to a certain number of cores.</t>
+  </si>
+  <si>
+    <t>TTNNM: Thermal- and Traffic-Aware Neural Network Mapping on 3D-NoC-based Accelerator</t>
+  </si>
+  <si>
+    <t>Xinyi Li,Wenjie Fan,Heng Zhang,Jinlun Ji,Tong Cheng,Shiping Li,Li Li,Yuxiang Fu</t>
+  </si>
+  <si>
+    <t>Thermal</t>
+  </si>
+  <si>
+    <t>A neural network-based mapping technique optimizes temperature distribution by strategically mapping NN layers based on their computational loads.</t>
+  </si>
+  <si>
+    <t>Average Temperature, Temperature Variance, Maximum Temperature and Average Packet Latency</t>
+  </si>
+  <si>
+    <t>AlexNet neural network 
+Average Temperature: 68.3°C
+Maximum Temperature: 77.2°C
+Temperature Variance: 5.9°C²
+Packet Latency: 13.6 cycles</t>
+  </si>
+  <si>
+    <t>The proposed method reduces average temperature, temperature variance, and maximum temperature. The temperature distribution across the NoC is more uniform, leading to improved thermal management.</t>
+  </si>
+  <si>
+    <t>The proposed method does not consider power consumption, even though power and thermal characteristics are closely related.</t>
+  </si>
+  <si>
+    <t>LSTM-based Temperature Prediction and Hotspot Tracking for Thermal-aware 3D NoC System</t>
+  </si>
+  <si>
+    <t>Tong Cheng, Haoyu Du, Li Li,Yuxiang Fu</t>
+  </si>
+  <si>
+    <t>Mean-Square-Error (MSE),Average Prediction Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mean-Square-Error =0.411°C
+Average Prediction Accuracy improved by 41.92% to 73.63%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The study is conducted on an 8×8×4 3D NoC system, but it's unclear how well the model scales to larger systems. </t>
+  </si>
+  <si>
+    <t>A Long Short-Term Memory (LSTM)-based model for temperature prediction that can work alongside Proactive Dynamic Thermal Management (PDTM).</t>
+  </si>
+  <si>
+    <t>The proposed method improves temperature prediction accuracy compared to traditional ARMA (Autoregressive Moving Average) models. Additionally, the model can quickly locate new hotspots within 0.075 ms.</t>
+  </si>
+  <si>
+    <t>1. Q-Thermal improves the standard deviation of thermal distribution by approximately 28% and 13% in comparison with TAAR(TAAR -Thermal aware adaptive routing) and PTB3R(Proactive thermal budget- based beltway routing algorithm), respectively.
 2. Q-Thermal exhibits a slightly denser traffic load in lower layers compared to TAAR, as it proactively steers traffic toward cooler regions.
 3. Q-Thermal demonstrates a 32% improvement in average latency compared to existing routing techniques.
 4. significantly reduces the number of thermal hotspots, achieving a 38% reduction compared to TAAR and 54% compared to PTB3R.
 5. Q-Thermal increases the layout area by 7% and 11% in comparison with TAAR and PTB3R, respectively.
 6. The total power consumption (the sum of both dynamic and static power) of Q-Thermal is 2% and 4% more than TAAR and PTB3R platforms, respectively.</t>
-  </si>
-  <si>
-    <t>1.The Q-Thermal method effectively records and utilizes temperature data from packet paths to optimize routing decisions in 3-D NoCs.
-2. The approach leads to better thermal balance, reduced hotspots, and improved network performance compared to previous methods.</t>
-  </si>
-  <si>
-    <t>Increased Area and Power Consumption: Slightly increases the area and power consumption compared to previous routing techniques. This increase is primarily due to the implementation of Q-tables and additional virtual channels.</t>
-  </si>
-  <si>
-    <t>https://ieeexplore.ieee.org/document/9172044</t>
-  </si>
-  <si>
-    <t>"A Nearest-Neighbor-Based Thermal Sensor
-Allocation and Temperature Reconstruction
-Method for 3-D NoC-Based Multicore Systems"</t>
-  </si>
-  <si>
-    <t>Menghao Guo,Tong Cheng,Xinyi Li,Li Li,Yuxiang Fu</t>
-  </si>
-  <si>
-    <t>1.Nearest-neighbor-based initialization algorithm to allocate thermal sensors and Genetic Algorithm (GA) to optimize the initial allocation.
-2. Use artificial neural network (ANN) to estimate the temperature of nonsensor-allocated nodes.</t>
-  </si>
-  <si>
-    <t>Average and Maximum Temperature Error</t>
-  </si>
-  <si>
-    <t>1. Reduces The average temperature error by 17.60%–88.63% compared with state-of-the-art methods.
-2. Reduces The maximum  temperature error by 26.97%–85.92%  compared with state-of-the-art methods.</t>
-  </si>
-  <si>
-    <t>The method assumes that spatial thermal correlations among cores remain constant across different applications, which may not be valid in all scenarios, potentially impacting temperature reconstruction accuracy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The proposed nearest-neighbor-based thermal sensor allocation method effectively places sensors based on spatial thermal correlation.
-The use of an artificial neural network (ANN) for temperature reconstruction allows for accurate estimation of temperatures in nonsensor-allocated nodes.  </t>
-  </si>
-  <si>
-    <t>https://ieeexplore.ieee.org/document/9941189</t>
-  </si>
-  <si>
-    <t>"TTQR: A Traffic- and Thermal-Aware Q-Routing for 3D
-Network-on-Chip"</t>
-  </si>
-  <si>
-    <t>Hanyan Liu,Xiaowen Chen,Yunping Zhao,Chen Li and Jianzhuang Lu</t>
-  </si>
-  <si>
-    <t>A Q learning based routing algorithm which uses two Q Table: One table maintains local traffic status information and second table holds global thermal information about the network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Average latency 
-2.Throughput 
-3.Statistical Traffic Load Distribution
-4. Temperature distribution </t>
-  </si>
-  <si>
-    <t>1.TTQR improves latency by an average of 63.6% compared to TAAR.(Thermal-aware Adaptive Routing)
-2. TTQR improves throughput by 41.4%  compared to TAAR.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. TTQR provides a more uniform temperature distribution across  layers compared to TAAR
-2.TTQR has a more balanced distribution of traffic load across layers </t>
-  </si>
-  <si>
-    <t>TTQR has slightly higher average temperature  compared to TAAR</t>
   </si>
 </sst>
 </file>
@@ -217,7 +355,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -240,12 +378,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -263,6 +461,36 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="120" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,16 +786,17 @@
     <col min="2" max="2" width="36.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="5.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="24.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.88671875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -577,26 +806,29 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -609,29 +841,29 @@
       <c r="D2" s="2">
         <v>2018</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="33.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:28" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
@@ -642,89 +874,290 @@
       <c r="D4" s="2">
         <v>2020</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="3" t="s">
+    </row>
+    <row r="6" spans="1:28" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="216" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="F6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="144" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>2022</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="2" t="s">
+    </row>
+    <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:28" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>39</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2024</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+    </row>
+    <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:28" ht="159" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2020</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+    </row>
+    <row r="16" spans="1:28" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:10" ht="115.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>13</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" xr:uid="{2B546614-E032-480F-90AD-4FE3F63DEC9D}"/>
-    <hyperlink ref="J6" r:id="rId2" xr:uid="{40DB3DFE-2086-48B9-A18E-6C4857D1FDA5}"/>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{2B546614-E032-480F-90AD-4FE3F63DEC9D}"/>
+    <hyperlink ref="K6" r:id="rId2" xr:uid="{40DB3DFE-2086-48B9-A18E-6C4857D1FDA5}"/>
+    <hyperlink ref="L12" r:id="rId3" xr:uid="{2B345A4F-83EE-49B1-9473-4BFC52B73FCF}"/>
+    <hyperlink ref="L14" r:id="rId4" xr:uid="{43C96158-DF9B-45E2-BDE1-03E414F3100D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/HPC/Project/Survey.xlsx
+++ b/HPC/Project/Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc\NITK\S1\Git\NITK\HPC\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1ADBA7-08C1-4C67-841E-E98127F57843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092BB5F8-ED8B-4D41-BC88-64D13B65DE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -776,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="120" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
